--- a/hh.xlsx
+++ b/hh.xlsx
@@ -703,10 +703,24 @@
       <c r="K3" t="n">
         <v>62</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://makeup.com.ua/ua/product/188135/</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>71</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -752,10 +766,24 @@
       <c r="K4" t="n">
         <v>52</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://makeup.com.ua/ua/product/188135/</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>64</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -801,10 +829,24 @@
       <c r="K5" t="n">
         <v>53</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://makeup.com.ua/ua/product/188135/</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>60</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -850,10 +892,24 @@
       <c r="K6" t="n">
         <v>90</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://makeup.com.ua/ua/product/188135/</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>33</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
